--- a/biology/Zoologie/Cypraea/Cypraea.xlsx
+++ b/biology/Zoologie/Cypraea/Cypraea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cypraea  est un genre de gastéropodes d'aspect lisse et brillant, dont les couleurs éclatantes sont à l’origine de leur popularité. « Porcelaine » est le nom couramment donné aux coquillages de ce groupe.
 </t>
@@ -511,9 +523,11 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce coquillage a été appelé porcellena en italien par Marco Polo qui le ramena de Chine, du fait de sa ressemblance avec la vulve de la truie (porcella)[1],[2]. Son nom scientifique Cypraea continue l'allusion, κύπρις (kupris) étant un autre nom de la déesse Aphrodite (Vénus).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce coquillage a été appelé porcellena en italien par Marco Polo qui le ramena de Chine, du fait de sa ressemblance avec la vulve de la truie (porcella),. Son nom scientifique Cypraea continue l'allusion, κύπρις (kupris) étant un autre nom de la déesse Aphrodite (Vénus).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plus de 200 espèces distinctes ont été placées dans ce genre, et plusieurs milliers de sous-espèces ou variétés ont été décrites (comme le cauri). Cependant, les classifications modernes ont réparti la plupart de ces espèces dans d'autres genres de la famille des Cypraeidae, comme Erosaria, Monetaria ou Cypraeovula[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus de 200 espèces distinctes ont été placées dans ce genre, et plusieurs milliers de sous-espèces ou variétés ont été décrites (comme le cauri). Cependant, les classifications modernes ont réparti la plupart de ces espèces dans d'autres genres de la famille des Cypraeidae, comme Erosaria, Monetaria ou Cypraeovula.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cypraea pantherina
@@ -606,7 +624,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les centaines d'espèces de Cypraeidae ont à l'origine été classées dans ce genre. Nous indiquons ici quelques-uns de ces très nombreux déplacements, sur des espèces connues. 
 Cypraea arabica Linnaeus, 1758 = Mauritia arabica
